--- a/layout_tipo_11.xlsx
+++ b/layout_tipo_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,18 +468,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NFE11-NUM-FATURA</t>
+          <t>NFE11-TP-REG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TEXTO</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,14 +492,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NFE11-SIGLA-UF-EMISSAO</t>
+          <t>NFE11-NUM-FATURA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -516,14 +516,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NFE11-SIGLA-EMP</t>
+          <t>NFE11-SIGLA-UF-EMISSAO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -540,11 +540,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NFE11-SERIE-NF</t>
+          <t>NFE11-SIGLA-EMP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -564,18 +564,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NFE11-NUM-NF</t>
+          <t>NFE11-SERIE-NF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NUMERO</t>
+          <t>TEXTO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,14 +588,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NFE11-COD-TIPO-ENTE-GOV</t>
+          <t>NFE11-NUM-NF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -612,18 +612,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NFE11-PERC-RED-ALIQ-COMPRAS-GOV</t>
+          <t>NFE11-COD-TIPO-ENTE-GOV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TEXTO</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -636,26 +636,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>NFE11-PERC-RED-ALIQ-COMPRAS-GOV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TEXTO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>NFE11-FILLER</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>499</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>TEXTO</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
